--- a/APM files/129176551/129176551 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/129176551/129176551 IMPORT Stop Sell Removal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\129176551\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/129176551/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A5C8E3-AEBC-407B-8A8F-3498D734EB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0577AF65-FC17-6146-A6CF-26CD85ABB71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="3930" windowWidth="23175" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="3460" windowWidth="23180" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,11 +56,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF343F41"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -99,12 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,11 +443,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>106501171</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>106710281</v>
+      </c>
+      <c r="B2" s="2">
         <v>129176551</v>
       </c>
       <c r="C2" t="s">
@@ -443,11 +457,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>106501168</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>106501166</v>
+      </c>
+      <c r="B3" s="2">
         <v>129176551</v>
       </c>
       <c r="C3" t="s">
@@ -457,17 +471,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>106710274</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>104835459</v>
+      </c>
+      <c r="B4" s="2">
         <v>129176551</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>104835462</v>
+      </c>
+      <c r="B5" s="2">
+        <v>129176551</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>106501169</v>
+      </c>
+      <c r="B6" s="2">
+        <v>129176551</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>104835461</v>
+      </c>
+      <c r="B7" s="2">
+        <v>129176551</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>105593364</v>
+      </c>
+      <c r="B8" s="2">
+        <v>129176551</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
